--- a/Work/SpaceX IP List.xlsx
+++ b/Work/SpaceX IP List.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philemon\Documents\ULB CyberSecurity\Master Thesis\master-thesis\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BFFC22-7D0B-45BB-9B81-FBEFEE12F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B294D5-1FDF-49D5-A33C-0A1654F4F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14685" yWindow="12015" windowWidth="21600" windowHeight="11385" xr2:uid="{CD9C249C-8872-4522-8D64-8CF6F167022A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD9C249C-8872-4522-8D64-8CF6F167022A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="367">
   <si>
     <t>City</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>IPv4</t>
+  </si>
+  <si>
+    <t>IPv6</t>
   </si>
   <si>
     <t>STARLINK_9704_FRNTDEU1_IPV4</t>
@@ -152,9 +156,6 @@
     <t>London</t>
   </si>
   <si>
-    <t>Great Britain</t>
-  </si>
-  <si>
     <t>STARLINK_5336_MDRDESP1_IPV4</t>
   </si>
   <si>
@@ -869,10 +870,292 @@
     <t>France</t>
   </si>
   <si>
-    <t>LV</t>
-  </si>
-  <si>
     <t>Lituania</t>
+  </si>
+  <si>
+    <t>LV (Lativa?)</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>STRLNK-MC-LHR3-POOL8-V4</t>
+  </si>
+  <si>
+    <t>217.65.136.0/22</t>
+  </si>
+  <si>
+    <t>STRLNK-MC-MAD1-POOL8-V4</t>
+  </si>
+  <si>
+    <t>217.65.140.0/24</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>STRLNK-MC-SOF1-POOL8-V4</t>
+  </si>
+  <si>
+    <t>145.224.120.0/22</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>STRLNK-POP-FRNTDEU1-POOL0-V4</t>
+  </si>
+  <si>
+    <t>145.224.96.0/21</t>
+  </si>
+  <si>
+    <t>STRLNK-POP-FRNTDEU1-POOL8-V4</t>
+  </si>
+  <si>
+    <t>STRLNK-POP-FRNTDEU1-POOL19-V4</t>
+  </si>
+  <si>
+    <t>145.224.104.0/22</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>STRLNK-POP-FRNTDEU1-POOL1001-V4</t>
+  </si>
+  <si>
+    <t>145.224.94.0/24</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>STRLNK-POP-LNDNGBR1-POOL0-V4</t>
+  </si>
+  <si>
+    <t>145.224.64.0/21</t>
+  </si>
+  <si>
+    <t>STRLNK-POP-LNDNGBR1-POOL1001-V4</t>
+  </si>
+  <si>
+    <t>145.224.95.0/24</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Olso</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Kiev</t>
+  </si>
+  <si>
+    <t>STARLINK_6873_MDRDESP1_IPV6</t>
+  </si>
+  <si>
+    <t>2a0d:3344:2000::/38</t>
+  </si>
+  <si>
+    <t>STARLINK_6863_FRNTDEU1_IPV6</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>STARLINK_6847_FRNTDEU1_IPV6</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>STARLINK_6845_FRNTDEU1_IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK_6843_FRNTDEU1_IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK_6832_LNDNGBR1_IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK_6816_LNDNGBR1_IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK_6814_LNDNGBR1_IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK_6812_LNDNGBR1_IPV6</t>
+  </si>
+  <si>
+    <t>2a0d:3344:1000::/42</t>
+  </si>
+  <si>
+    <t>2a0d:3344:1400::/42</t>
+  </si>
+  <si>
+    <t>2a0d:3344:1800::/42</t>
+  </si>
+  <si>
+    <t>2a0d:3344:1c00::/42</t>
+  </si>
+  <si>
+    <t>2a0d:3344:400::/42</t>
+  </si>
+  <si>
+    <t>2a0d:3344:800::/42</t>
+  </si>
+  <si>
+    <t>2a0d:3344:c00::/42</t>
+  </si>
+  <si>
+    <t>STARLINK-6703-US-STTLWAX1-IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK-6877-US-STTLWAX1-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59C8:400::/40</t>
+  </si>
+  <si>
+    <t>2605:59C8:1000::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6724-US-CHCOILX1-IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK-6882-US-CHCOILX1-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59c8:1400::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6728-US-NWYYNYX1-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59C8:2000::/40</t>
+  </si>
+  <si>
+    <t>2605:59c8::/40</t>
+  </si>
+  <si>
+    <t>2a0d:3344::/42</t>
+  </si>
+  <si>
+    <t>2605:59C8:2400::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6887-US-NWYYNYX1-IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK-6732-US-LSANCAX1-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59C8:3000::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6735-US-DLLSTXX1-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59C8:4000::/40</t>
+  </si>
+  <si>
+    <t>2605:59C8:5000::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6738-US-DNVRCOX1-IPV6</t>
+  </si>
+  <si>
+    <t>Atlanta GO</t>
+  </si>
+  <si>
+    <t>2605:59c8:6000::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6747-US-ATLAGAX1-IPV6</t>
+  </si>
+  <si>
+    <t>STARLINK-8306-PR-ATLAGAX1-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59C8:6400::/42</t>
+  </si>
+  <si>
+    <t>STARLINK-8272-MX-QRTOMEX1-IPV6</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>2605:59C8:7000::/40</t>
+  </si>
+  <si>
+    <t>STARLINK-6494-US-RDMDWAX3-IPV6</t>
+  </si>
+  <si>
+    <t>2605:59C9::/40</t>
+  </si>
+  <si>
+    <t>Redmond WA</t>
+  </si>
+  <si>
+    <t>2c0f:2a80::/32</t>
+  </si>
+  <si>
+    <t>SISN1-v6</t>
+  </si>
+  <si>
+    <t>Range utility</t>
+  </si>
+  <si>
+    <t>2406:2d40:4000::/42</t>
+  </si>
+  <si>
+    <t>HYPOTHESIS</t>
+  </si>
+  <si>
+    <t>Public IP for users</t>
+  </si>
+  <si>
+    <t>Public IP for users (1004232)</t>
+  </si>
+  <si>
+    <t>Public IP for users (60892)</t>
+  </si>
+  <si>
+    <t>Public IP for users (62843)</t>
+  </si>
+  <si>
+    <t>Public IP for users (61366)</t>
+  </si>
+  <si>
+    <t>Public IP for users (54088)</t>
+  </si>
+  <si>
+    <t>Public IP for users (19983)</t>
+  </si>
+  <si>
+    <t>Public IP for users (60323)</t>
+  </si>
+  <si>
+    <t>Public IP for users (62553, 61081)</t>
+  </si>
+  <si>
+    <t>Public IP for users (61365, 54330)</t>
+  </si>
+  <si>
+    <t>Public IP for users (13851)</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -901,15 +1184,45 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -917,32 +1230,378 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFCC9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1251,1814 +1910,2470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1EA4DA-015E-4BB8-838B-09D1BD25F0A6}">
-  <dimension ref="C4:M128"/>
+  <dimension ref="C3:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="3" t="s">
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="K4" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="61"/>
+    </row>
+    <row r="5" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
+      <c r="N5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="46" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O6" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="31"/>
+      <c r="D10" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="34"/>
+      <c r="D13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="34"/>
+      <c r="D14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="K14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="34"/>
+      <c r="D15" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="K15" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="K16" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="K17" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="35"/>
+      <c r="D18" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="K18" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="31"/>
+      <c r="D19" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H19" s="6"/>
+      <c r="K19" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="31"/>
+      <c r="D20" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="K20" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="P20" s="11"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="31"/>
+      <c r="D21" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="K21" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="K22" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="K23" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C24" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="K24" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="31"/>
+      <c r="D25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K25" s="31"/>
+      <c r="L25" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C26" s="31"/>
+      <c r="D26" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="31"/>
+      <c r="D27" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="H27" s="12"/>
+      <c r="K27" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="L27" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="M27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="35"/>
+      <c r="D28" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="O28" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="P28" s="58" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="34"/>
+      <c r="D29" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="O29" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="P29" s="54"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="31"/>
+      <c r="D31" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F31" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="F32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G33" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="31"/>
+      <c r="D34" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E34" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G34" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+      <c r="H34" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="35"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G35" s="13" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="35"/>
+      <c r="D36" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E37" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G37" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D38" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E38" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G38" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="H38" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E39" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G39" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E40" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G40" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D41" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E41" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G41" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D42" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E42" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G42" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G43" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G44" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D45" s="25"/>
+      <c r="E45" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G45" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="31"/>
+      <c r="D46" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E46" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G46" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="31"/>
+      <c r="D47" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E47" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G47" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" s="31"/>
+      <c r="D48" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E48" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G48" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" s="31"/>
+      <c r="D49" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E49" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G49" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D50" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E50" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G50" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D51" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E51" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G51" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D52" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E52" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G52" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D53" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E53" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G53" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D54" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E54" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G54" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D55" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E55" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G55" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D56" s="25"/>
+      <c r="E56" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G56" s="8" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G57" s="8" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G58" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="31"/>
+      <c r="D59" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E59" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G59" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="31"/>
+      <c r="D60" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E60" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G60" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="31"/>
+      <c r="D61" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E61" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G61" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="31"/>
+      <c r="D62" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="E62" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G62" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="31"/>
+      <c r="D63" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="E63" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G63" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D64" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E55" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E64" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G64" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D65" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E56" t="s">
-        <v>51</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="E65" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G65" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+      <c r="H65" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D66" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E57" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="E66" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G66" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G67" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E59" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="D68" s="25"/>
+      <c r="E68" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G68" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="31"/>
+      <c r="D69" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E60" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E69" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G69" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70" s="31"/>
+      <c r="D70" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E61" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E70" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G70" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="31"/>
+      <c r="D71" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E62" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E71" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G71" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D72" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="E72" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G72" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D73" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E64" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="E73" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G73" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="H73" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D74" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E65" t="s">
-        <v>51</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="E74" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G74" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D75" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E66" t="s">
-        <v>51</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="E75" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G75" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E67" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G76" s="8" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D77" s="25"/>
+      <c r="E77" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G77" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D78" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E69" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E78" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G78" s="11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D79" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="E79" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G79" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D80" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E71" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E80" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G80" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D82" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G84" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88" s="31"/>
+      <c r="D88" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89" s="31"/>
+      <c r="D89" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="31"/>
+      <c r="D90" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="31"/>
+      <c r="D91" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>172</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E92" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D93" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="E93" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E75" t="s">
-        <v>51</v>
-      </c>
-      <c r="F75" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" t="s">
-        <v>164</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F77" t="s">
-        <v>166</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>172</v>
-      </c>
-      <c r="E78" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" t="s">
-        <v>51</v>
-      </c>
-      <c r="F79" t="s">
-        <v>155</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" t="s">
-        <v>245</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" t="s">
-        <v>51</v>
-      </c>
-      <c r="F81" t="s">
-        <v>247</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
-        <v>249</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E95" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E83" t="s">
-        <v>51</v>
-      </c>
-      <c r="F83" t="s">
-        <v>126</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E96" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E84" t="s">
-        <v>51</v>
-      </c>
-      <c r="F84" t="s">
-        <v>153</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" t="s">
-        <v>51</v>
-      </c>
-      <c r="F85" t="s">
-        <v>193</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E97" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E86" t="s">
-        <v>51</v>
-      </c>
-      <c r="F86" t="s">
-        <v>251</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="E98" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D87" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F87" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="D99" s="25"/>
+      <c r="E99" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="D88" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F88" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>179</v>
-      </c>
-      <c r="D89" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" t="s">
-        <v>51</v>
-      </c>
-      <c r="F89" t="s">
-        <v>134</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>179</v>
-      </c>
-      <c r="E90" t="s">
-        <v>51</v>
-      </c>
-      <c r="F90" t="s">
-        <v>204</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>179</v>
-      </c>
-      <c r="E91" t="s">
-        <v>51</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D100" s="25"/>
+      <c r="E100" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G100" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="E92" t="s">
-        <v>51</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="D101" s="25"/>
+      <c r="E101" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G101" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D102" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E102" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F102" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G102" s="11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D103" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E103" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F103" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G103" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+      <c r="H103" s="11"/>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E95" t="s">
+      <c r="D104" s="25"/>
+      <c r="E104" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F104" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G104" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D105" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E105" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F105" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G105" s="15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D106" s="25"/>
+      <c r="E106" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F106" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G106" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E98" t="s">
+      <c r="D107" s="25"/>
+      <c r="E107" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F107" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G107" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D108" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E108" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F108" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G108" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+      <c r="H108" s="11"/>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D109" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E109" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F109" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G109" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+      <c r="H109" s="11"/>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E101" t="s">
+      <c r="D110" s="25"/>
+      <c r="E110" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F110" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G110" s="15" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="E102" t="s">
+      <c r="D111" s="25"/>
+      <c r="E111" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F111" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G111" s="15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D112" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F103" t="s">
+      <c r="E112" s="42"/>
+      <c r="F112" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G112" s="10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D113" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F104" t="s">
+      <c r="E113" s="42"/>
+      <c r="F113" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G113" s="10" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D114" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F105" t="s">
+      <c r="E114" s="42"/>
+      <c r="F114" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G114" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D115" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="F106" t="s">
+      <c r="E115" s="42"/>
+      <c r="F115" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G115" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F107" t="s">
+      <c r="H115" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116" s="35"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G116" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E108" t="s">
+      <c r="D117" s="25"/>
+      <c r="E117" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F117" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="G117" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D118" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E118" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F118" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G109" s="6" t="s">
+      <c r="G118" s="15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="E110" t="s">
+      <c r="D119" s="29"/>
+      <c r="E119" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F119" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G119" s="16" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F116" t="s">
+      <c r="H119" s="16"/>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F117" t="s">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
         <v>138</v>
       </c>
-      <c r="G117" s="6" t="s">
+      <c r="H127" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F118" t="s">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
         <v>139</v>
       </c>
-      <c r="G118" s="6" t="s">
+      <c r="H128" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F119" t="s">
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
         <v>140</v>
       </c>
-      <c r="G119" s="6" t="s">
+      <c r="H129" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F120" t="s">
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
         <v>141</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="H130" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F121" t="s">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
         <v>142</v>
       </c>
-      <c r="G121" s="6" t="s">
+      <c r="H131" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F122" t="s">
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
         <v>143</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="H132" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F123" t="s">
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
         <v>144</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="H133" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F124" t="s">
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
         <v>145</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="H134" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F125" t="s">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
         <v>146</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="H135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F126" t="s">
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
         <v>147</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="H136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F127" t="s">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
         <v>148</v>
       </c>
-      <c r="G127" s="6" t="s">
+      <c r="H137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F128" t="s">
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:I5"/>
+  <mergeCells count="1">
+    <mergeCell ref="K4:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Work/SpaceX IP List.xlsx
+++ b/Work/SpaceX IP List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philemon\Documents\ULB CyberSecurity\Master Thesis\master-thesis\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B294D5-1FDF-49D5-A33C-0A1654F4F250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A1F39A-4D90-4387-9C10-435595EDEAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD9C249C-8872-4522-8D64-8CF6F167022A}"/>
+    <workbookView xWindow="-10635" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{CD9C249C-8872-4522-8D64-8CF6F167022A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -912,6 +912,9 @@
     <t>STRLNK-POP-FRNTDEU1-POOL0-V4</t>
   </si>
   <si>
+    <t>145.224.72.0/21</t>
+  </si>
+  <si>
     <t>145.224.96.0/21</t>
   </si>
   <si>
@@ -1153,9 +1156,6 @@
   </si>
   <si>
     <t>Public IP for users (13851)</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1912,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1EA4DA-015E-4BB8-838B-09D1BD25F0A6}">
   <dimension ref="C3:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,12 +1923,12 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1968,7 +1968,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
@@ -2014,18 +2014,18 @@
         <v>21</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>252</v>
@@ -2042,22 +2042,22 @@
       <c r="H7" s="6"/>
       <c r="K7" s="31"/>
       <c r="L7" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M7" s="38" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>273</v>
@@ -2080,16 +2080,16 @@
         <v>21</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>274</v>
@@ -2106,16 +2106,16 @@
       <c r="H9" s="6"/>
       <c r="K9" s="31"/>
       <c r="L9" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M9" s="38" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P9" s="12"/>
     </row>
@@ -2142,10 +2142,10 @@
         <v>21</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P10" s="12"/>
     </row>
@@ -2168,19 +2168,19 @@
       <c r="H11" s="7"/>
       <c r="K11" s="31"/>
       <c r="L11" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M11" s="49" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
@@ -2206,10 +2206,10 @@
         <v>21</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P12" s="12"/>
     </row>
@@ -2220,26 +2220,26 @@
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="22" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>284</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K13" s="31"/>
       <c r="L13" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M13" s="38" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P13" s="12"/>
     </row>
@@ -2250,10 +2250,10 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H14" s="9"/>
       <c r="K14" s="32" t="s">
@@ -2266,24 +2266,24 @@
         <v>21</v>
       </c>
       <c r="N14" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="O14" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C15" s="34"/>
       <c r="D15" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="H15" s="9"/>
       <c r="K15" s="32" t="s">
@@ -2296,26 +2296,26 @@
         <v>51</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="H16" s="9"/>
       <c r="K16" s="32" t="s">
@@ -2328,10 +2328,10 @@
         <v>51</v>
       </c>
       <c r="N16" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="O16" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>321</v>
       </c>
       <c r="P16" s="11"/>
     </row>
@@ -2362,10 +2362,10 @@
         <v>51</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P17" s="11"/>
     </row>
@@ -2392,10 +2392,10 @@
         <v>51</v>
       </c>
       <c r="N18" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="O18" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="P18" s="11"/>
     </row>
@@ -2424,10 +2424,10 @@
         <v>51</v>
       </c>
       <c r="N19" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="P19" s="11"/>
     </row>
@@ -2456,10 +2456,10 @@
         <v>51</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P20" s="11"/>
     </row>
@@ -2488,10 +2488,10 @@
         <v>51</v>
       </c>
       <c r="N21" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="O21" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="P21" s="11"/>
     </row>
@@ -2522,10 +2522,10 @@
         <v>51</v>
       </c>
       <c r="N22" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="O22" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="P22" s="11"/>
     </row>
@@ -2554,10 +2554,10 @@
         <v>51</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P23" s="11"/>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="H24" s="11"/>
       <c r="K24" s="32" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L24" s="24" t="s">
         <v>50</v>
@@ -2588,13 +2588,13 @@
         <v>51</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="26" t="s">
@@ -2622,10 +2622,10 @@
         <v>51</v>
       </c>
       <c r="N25" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>342</v>
       </c>
       <c r="P25" s="12"/>
     </row>
@@ -2644,22 +2644,22 @@
         <v>23</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K26" s="32" t="s">
         <v>232</v>
       </c>
       <c r="L26" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="O26" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="P26" s="11"/>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="H27" s="12"/>
       <c r="K27" s="32" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L27" s="24" t="s">
         <v>50</v>
@@ -2688,10 +2688,10 @@
         <v>51</v>
       </c>
       <c r="N27" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="O27" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="P27" s="11"/>
     </row>
@@ -2716,13 +2716,13 @@
         <v>169</v>
       </c>
       <c r="N28" s="56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O28" s="58" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P28" s="58" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2732,13 +2732,13 @@
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="H29" s="14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K29" s="51" t="s">
         <v>100</v>
@@ -2750,26 +2750,26 @@
         <v>102</v>
       </c>
       <c r="N29" s="52" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O29" s="54" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P29" s="54"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>296</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -2838,7 +2838,7 @@
         <v>264</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>39</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>158</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -3496,7 +3496,7 @@
         <v>121</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
         <v>260</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.25">
